--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R4635fad9d74a45fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R1c22ecc3b90f4196"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22dcbb3b75a54091"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R02e78847e90249d9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4122a1c1ba1045c4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R86904bfd9f084d93"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R1c22ecc3b90f4196"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R292f2e3c3dd44e41"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R02e78847e90249d9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8f391e799d474437"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R86904bfd9f084d93"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c86d79025e844af"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R292f2e3c3dd44e41"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Re3e87f11009b4634"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8f391e799d474437"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6a35a04c0e74427e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c86d79025e844af"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re16838992e5b4105"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Re3e87f11009b4634"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R6a3f326c2b24402f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6a35a04c0e74427e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdda06aea4df24012"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re16838992e5b4105"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R622cfdde02e0433a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R6a3f326c2b24402f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7c6de0b6ebe44b35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdda06aea4df24012"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e169fb65d004197"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R622cfdde02e0433a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5b660467948743b1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7c6de0b6ebe44b35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Ra3ed7fbaeb8442b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e169fb65d004197"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R17797fa431084765"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5b660467948743b1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3359a925a09a4b92"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Ra3ed7fbaeb8442b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7645015ceb5c45be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R17797fa431084765"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra1e231ea53e745dc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3359a925a09a4b92"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re54d0555288d4859"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7645015ceb5c45be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R3822fe570c0a4aa1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra1e231ea53e745dc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rabefd44cba6948b4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re54d0555288d4859"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R475d4cd2552c430b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R3822fe570c0a4aa1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R352ba8d866954102"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rabefd44cba6948b4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf56051933144a06"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R475d4cd2552c430b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbcab749460c443b5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R352ba8d866954102"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7bee3afbfc2c4ff0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf56051933144a06"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4254d4ede46e4277"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbcab749460c443b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R862e7e8615d747e7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R7bee3afbfc2c4ff0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Rbb79708169784dcb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4254d4ede46e4277"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c087fbe2bac49e8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R862e7e8615d747e7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b2920343adc4f5a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="Rbb79708169784dcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R08980442b8c14cfc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c087fbe2bac49e8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R09ffb015d8c94d65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b2920343adc4f5a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a95f7e0477f41cf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/092_BarChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R08980442b8c14cfc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Data" sheetId="1" r:id="R437dce9a6b7a4eca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R09ffb015d8c94d65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc618723ce1494e15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -237,6 +237,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a95f7e0477f41cf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R043c8b9ae66a45e3"/>
 </x:worksheet>
 </file>